--- a/data_year/zb/科技/规模以上制造业企业产品和工艺创新情况/有产品或工艺创新活动的规模以上制造业企业占全部规模以上制造业企业的比重/按登记注册类型分有产品或工艺创新活动的规模以上制造业企业占全部规模以上制造业企业的比重.xlsx
+++ b/data_year/zb/科技/规模以上制造业企业产品和工艺创新情况/有产品或工艺创新活动的规模以上制造业企业占全部规模以上制造业企业的比重/按登记注册类型分有产品或工艺创新活动的规模以上制造业企业占全部规模以上制造业企业的比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
